--- a/imusant old/Documentation/MusicXMLv3_Elements_Reqs.xlsx
+++ b/imusant old/Documentation/MusicXMLv3_Elements_Reqs.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="2060" windowWidth="36420" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="20" windowWidth="36420" windowHeight="21080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="MXML V3 Elements" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MXML V3 Elements'!$A$2:$G$216</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="420">
   <si>
     <t>Element</t>
   </si>
@@ -55,16 +58,9 @@
     <t>n</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>clef</t>
   </si>
   <si>
-    <t>In v3 implementation 
-(yes, no, indirectly)</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -74,9 +70,6 @@
     <t>m</t>
   </si>
   <si>
-    <t xml:space="preserve">y </t>
-  </si>
-  <si>
     <t>Part of Clef for transposition.</t>
   </si>
   <si>
@@ -105,9 +98,6 @@
   </si>
   <si>
     <t>Indicates part doubled at the octave below. Pert of transpose.</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>fifths</t>
@@ -1273,6 +1263,67 @@
   </si>
   <si>
     <t>http://www.musicxml.com/UserManuals/MusicXML/Content/EL-MusicXML.htm</t>
+  </si>
+  <si>
+    <t>In v3 implementation 
+(yes, no)</t>
+  </si>
+  <si>
+    <t>The conditioal formating has the following meaning:</t>
+  </si>
+  <si>
+    <t>RED = a required element that is not yet implemented in the MusicXML V3 parser.</t>
+  </si>
+  <si>
+    <t>ORANGE = an element that might be required (needs review and confirmation) but is not yet implemented in the MusicXML V3 parser.</t>
+  </si>
+  <si>
+    <t>GREEN = an element that is required and is already implemented in the MusicXML V3 parser.</t>
+  </si>
+  <si>
+    <t>Last updated: 20 December 2015.</t>
+  </si>
+  <si>
+    <t>Last updated by: Derrick Hill</t>
+  </si>
+  <si>
+    <t>The beat-repeat type is used to indicate that a single beat (but possibly many notes) is repeated.</t>
+  </si>
+  <si>
+    <t>The beat-type element indicates the beat unit, as found in the denominator of a time signature.</t>
+  </si>
+  <si>
+    <t>Clefs are represented by a combination of sign, line, and clef-octave-change elements.</t>
+  </si>
+  <si>
+    <t>Directives are like directions, but can be grouped together with attributes for convenience. This is typically used for tempo markings at the beginning of a piece of music. This element has been deprecated in Version 2.0 in favor of the directive attribute for direction elements.</t>
+  </si>
+  <si>
+    <t>http://www.musicxml.com/UserManuals/MusicXML/MusicXML.htm#EL-MusicXML-clef.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____5</t>
+  </si>
+  <si>
+    <t>Non-traditional key signatures can be represented using the Humdrum/Scot concept of a list of altered tones.</t>
+  </si>
+  <si>
+    <t>http://www.musicxml.com/UserManuals/MusicXML/MusicXML.htm#EL-MusicXML-key-accidental.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____15</t>
+  </si>
+  <si>
+    <t>http://www.musicxml.com/UserManuals/MusicXML/MusicXML.htm#EL-MusicXML-key-step.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The measure-repeat type is used for both single and multiple measure repeats. </t>
+  </si>
+  <si>
+    <t>http://www.musicxml.com/UserManuals/MusicXML/MusicXML.htm#EL-MusicXML-measure-repeat.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____20</t>
+  </si>
+  <si>
+    <t>If a barline is other than a normal single barline, it should be represented by a barline type that describes it. This includes information about repeats and multiple endings, as well as line style.</t>
+  </si>
+  <si>
+    <t>The creator element is borrowed from Dublin Core. It is used for the creators of the score. The type attribute is used to distinguish different creative contributions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Works are optionally identified by number and title. </t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1410,248 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -1686,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:A7"/>
+  <dimension ref="A4:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1699,17 +1991,47 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -1727,11 +2049,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G217"/>
+  <dimension ref="A2:G216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E235" sqref="E235"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1746,7 +2068,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1758,18 +2080,18 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>400</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1778,45 +2100,47 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>408</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
@@ -1827,7 +2151,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -1836,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
@@ -1847,12 +2171,14 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>409</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1861,20 +2187,23 @@
       </c>
       <c r="F7" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
@@ -1885,13 +2214,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
@@ -1903,14 +2232,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1918,64 +2249,64 @@
         <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>9</v>
@@ -1986,39 +2317,39 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>10</v>
@@ -2029,13 +2360,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -2047,36 +2378,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>10</v>
@@ -2087,16 +2423,16 @@
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>10</v>
@@ -2105,33 +2441,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
@@ -2145,31 +2486,36 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
@@ -2183,13 +2529,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>9</v>
@@ -2203,13 +2549,13 @@
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
@@ -2220,22 +2566,22 @@
       <c r="F25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>51</v>
+      <c r="G25" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>10</v>
@@ -2244,21 +2590,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>10</v>
@@ -2267,21 +2613,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>10</v>
@@ -2290,18 +2636,18 @@
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>9</v>
@@ -2313,21 +2659,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>10</v>
@@ -2336,21 +2682,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>10</v>
@@ -2359,21 +2705,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>10</v>
@@ -2381,22 +2727,22 @@
       <c r="F32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>74</v>
+      <c r="G32" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>10</v>
@@ -2405,21 +2751,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>10</v>
@@ -2428,18 +2774,18 @@
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>10</v>
@@ -2453,13 +2799,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>10</v>
@@ -2473,13 +2819,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>10</v>
@@ -2493,13 +2839,13 @@
     </row>
     <row r="38" spans="1:7" ht="30">
       <c r="A38" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>10</v>
@@ -2513,13 +2859,13 @@
     </row>
     <row r="39" spans="1:7" ht="30">
       <c r="A39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>9</v>
@@ -2533,13 +2879,13 @@
     </row>
     <row r="40" spans="1:7" ht="30">
       <c r="A40" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>10</v>
@@ -2553,60 +2899,62 @@
     </row>
     <row r="41" spans="1:7" ht="30">
       <c r="A41" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42" t="s">
+        <v>351</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>355</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>10</v>
@@ -2617,16 +2965,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>10</v>
@@ -2637,13 +2985,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
@@ -2657,13 +3005,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>9</v>
@@ -2677,13 +3025,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
@@ -2697,13 +3045,13 @@
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="A48" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>9</v>
@@ -2715,18 +3063,18 @@
         <v>10</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60">
       <c r="A49" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>10</v>
@@ -2740,13 +3088,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>10</v>
@@ -2758,18 +3106,18 @@
         <v>10</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>10</v>
@@ -2781,18 +3129,18 @@
         <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>10</v>
@@ -2804,18 +3152,18 @@
         <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>10</v>
@@ -2829,13 +3177,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>10</v>
@@ -2849,13 +3197,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>10</v>
@@ -2872,10 +3220,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>9</v>
@@ -2886,42 +3234,42 @@
       <c r="F56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>123</v>
+      <c r="G56" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30">
       <c r="A58" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>9</v>
@@ -2933,18 +3281,18 @@
         <v>10</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>9</v>
@@ -2956,18 +3304,18 @@
         <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>10</v>
@@ -2981,13 +3329,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>10</v>
@@ -3001,13 +3349,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>10</v>
@@ -3021,13 +3369,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>10</v>
@@ -3041,13 +3389,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>10</v>
@@ -3061,13 +3409,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>10</v>
@@ -3081,13 +3429,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>10</v>
@@ -3101,13 +3449,13 @@
     </row>
     <row r="67" spans="1:7" ht="45">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>10</v>
@@ -3119,18 +3467,18 @@
         <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>10</v>
@@ -3144,13 +3492,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>10</v>
@@ -3164,13 +3512,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>10</v>
@@ -3184,13 +3532,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>10</v>
@@ -3204,13 +3552,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>10</v>
@@ -3224,66 +3572,82 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="60">
+      <c r="A74" t="s">
+        <v>353</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30">
+      <c r="A75" t="s">
+        <v>354</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" ht="60">
-      <c r="A75" t="s">
-        <v>357</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30">
       <c r="A76" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>10</v>
@@ -3295,18 +3659,18 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30">
+    <row r="77" spans="1:7" ht="45">
       <c r="A77" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>162</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>10</v>
@@ -3314,82 +3678,82 @@
       <c r="F77" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G77" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="45">
+    </row>
+    <row r="78" spans="1:7" ht="30">
       <c r="A78" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>166</v>
+        <v>418</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30">
+      <c r="A80" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>359</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="D80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>355</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="7" t="s">
+      <c r="C81" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="30">
-      <c r="A81" t="s">
-        <v>359</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D81" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>10</v>
@@ -3400,62 +3764,65 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>359</v>
+        <v>8</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3463,22 +3830,19 @@
         <v>8</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3486,62 +3850,65 @@
         <v>8</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C86" s="4" t="s">
+    </row>
+    <row r="87" spans="1:7" ht="30">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="D87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="7" t="s">
+      <c r="C88" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="30">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3549,10 +3916,10 @@
         <v>8</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>10</v>
@@ -3562,9 +3929,6 @@
       </c>
       <c r="F89" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3572,10 +3936,10 @@
         <v>8</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>10</v>
@@ -3592,10 +3956,10 @@
         <v>8</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>10</v>
@@ -3606,16 +3970,19 @@
       <c r="F91" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="G91" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>10</v>
@@ -3625,9 +3992,6 @@
       </c>
       <c r="F92" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="30">
@@ -3635,10 +3999,10 @@
         <v>8</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>10</v>
@@ -3650,12 +4014,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>199</v>
@@ -3675,353 +4039,353 @@
         <v>8</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="60">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C96" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="4" t="s">
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="60">
-      <c r="A97" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="D98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="4" t="s">
+      <c r="D99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="D100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="D101" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>8</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:6" ht="30">
       <c r="A103" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="30">
-      <c r="A104" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="4" t="s">
+      <c r="C105" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="D106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="30">
-      <c r="A105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="4" t="s">
+      <c r="C107" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30">
-      <c r="A107" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="4" t="s">
+      <c r="C108" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="45">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="4" t="s">
+      <c r="D109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="4" t="s">
+      <c r="C110" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="45">
-      <c r="A110" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="C111" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="C112" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>10</v>
@@ -4038,10 +4402,10 @@
         <v>8</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>10</v>
@@ -4051,6 +4415,9 @@
       </c>
       <c r="F113" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4058,10 +4425,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>10</v>
@@ -4071,9 +4438,6 @@
       </c>
       <c r="F114" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4081,13 +4445,13 @@
         <v>8</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="D115" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>10</v>
@@ -4101,19 +4465,22 @@
         <v>8</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="D116" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4121,13 +4488,13 @@
         <v>8</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>10</v>
@@ -4136,7 +4503,7 @@
         <v>10</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4144,13 +4511,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>10</v>
@@ -4158,19 +4525,17 @@
       <c r="F118" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="7" t="s">
-        <v>254</v>
-      </c>
+      <c r="G118" s="7"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>8</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>10</v>
@@ -4188,10 +4553,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>10</v>
@@ -4209,52 +4574,52 @@
         <v>8</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>215</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G121" s="7"/>
+      <c r="G121" s="7" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>8</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C122" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="D122" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G122" s="7" t="s">
-        <v>261</v>
-      </c>
+      <c r="G122" s="7"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>8</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>10</v>
@@ -4272,10 +4637,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>10</v>
@@ -4293,10 +4658,10 @@
         <v>8</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>10</v>
@@ -4314,10 +4679,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>10</v>
@@ -4335,52 +4700,52 @@
         <v>8</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128" spans="1:7" ht="30">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="D128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="7"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="4" t="s">
+      <c r="C129" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="7"/>
-    </row>
-    <row r="129" spans="1:7" ht="30">
-      <c r="A129" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>10</v>
@@ -4398,10 +4763,10 @@
         <v>8</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>10</v>
@@ -4419,10 +4784,10 @@
         <v>8</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>10</v>
@@ -4440,10 +4805,10 @@
         <v>8</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>10</v>
@@ -4461,10 +4826,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>10</v>
@@ -4482,168 +4847,166 @@
         <v>8</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>215</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G134" s="7"/>
+      <c r="G134" s="7" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>8</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C135" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="D135" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G135" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="G135" s="7"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>8</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="1:7" ht="195">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="D137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="7"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="4" t="s">
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="7"/>
-    </row>
-    <row r="138" spans="1:7" ht="195">
-      <c r="A138" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="4"/>
+      <c r="D138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C138" s="4" t="s">
+    </row>
+    <row r="139" spans="1:7" ht="30">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="7" t="s">
+      <c r="C139" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="D139" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="1:7" ht="60">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G139" s="7" t="s">
+      <c r="C140" s="4" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="30">
-      <c r="A140" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="D140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="7"/>
-    </row>
-    <row r="141" spans="1:7" ht="60">
-      <c r="A141" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>291</v>
-      </c>
+      <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G141" s="7"/>
     </row>
@@ -4652,32 +5015,34 @@
         <v>8</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C142" s="4"/>
+        <v>289</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="D142" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" ht="285">
       <c r="A143" t="s">
         <v>8</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>10</v>
@@ -4685,69 +5050,68 @@
       <c r="F143" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G143" s="7"/>
-    </row>
-    <row r="144" spans="1:7" ht="285">
+      <c r="G143" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>8</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="D144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="30">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="6" t="s">
+      <c r="C145" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" s="4" t="s">
+      <c r="D145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="30">
-      <c r="A146" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="D146" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4755,10 +5119,10 @@
         <v>8</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>10</v>
@@ -4775,10 +5139,10 @@
         <v>8</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>10</v>
@@ -4795,19 +5159,22 @@
         <v>8</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4815,22 +5182,19 @@
         <v>8</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4838,19 +5202,22 @@
         <v>8</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4858,22 +5225,19 @@
         <v>8</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4881,10 +5245,10 @@
         <v>8</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>10</v>
@@ -4901,13 +5265,13 @@
         <v>8</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>10</v>
@@ -4921,13 +5285,13 @@
         <v>8</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>10</v>
@@ -4941,10 +5305,10 @@
         <v>8</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>10</v>
@@ -4961,10 +5325,10 @@
         <v>8</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>10</v>
@@ -4981,10 +5345,10 @@
         <v>8</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>10</v>
@@ -5001,10 +5365,10 @@
         <v>8</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>10</v>
@@ -5021,10 +5385,10 @@
         <v>8</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>10</v>
@@ -5041,19 +5405,19 @@
         <v>8</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5061,19 +5425,19 @@
         <v>8</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5081,10 +5445,10 @@
         <v>8</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>10</v>
@@ -5101,10 +5465,10 @@
         <v>8</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>10</v>
@@ -5121,10 +5485,10 @@
         <v>8</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>10</v>
@@ -5141,19 +5505,22 @@
         <v>8</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="D166" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5161,53 +5528,53 @@
         <v>8</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="165">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C168" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" s="4" t="s">
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="165">
-      <c r="A169" t="s">
-        <v>8</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="C169" s="4" t="s">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>10</v>
@@ -5217,9 +5584,6 @@
       </c>
       <c r="F169" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5227,19 +5591,22 @@
         <v>8</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5247,22 +5614,19 @@
         <v>8</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5270,19 +5634,22 @@
         <v>8</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5290,22 +5657,19 @@
         <v>8</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>330</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5313,19 +5677,19 @@
         <v>8</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>332</v>
+        <v>118</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5333,19 +5697,19 @@
         <v>8</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>122</v>
+        <v>330</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5353,50 +5717,50 @@
         <v>8</v>
       </c>
       <c r="B176" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="30">
-      <c r="A178" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>10</v>
@@ -5413,62 +5777,62 @@
         <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="30">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" s="4" t="s">
+      <c r="D180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="30">
-      <c r="A181" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="C181" s="4" t="s">
-        <v>342</v>
+        <v>209</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5476,74 +5840,74 @@
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="45">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C182" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" t="s">
-        <v>8</v>
-      </c>
-      <c r="B183" s="4" t="s">
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="45">
-      <c r="A184" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" s="4" t="s">
+      <c r="C184" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="30">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="D185" s="4" t="s">
         <v>10</v>
       </c>
@@ -5554,15 +5918,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="30">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>8</v>
+        <v>356</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>351</v>
+        <v>211</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>10</v>
@@ -5576,13 +5940,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>10</v>
@@ -5596,13 +5960,13 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>10</v>
@@ -5616,53 +5980,53 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
+        <v>356</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="C189" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="30">
+      <c r="A190" t="s">
+        <v>356</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>356</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" t="s">
-        <v>360</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="30">
-      <c r="A191" t="s">
-        <v>360</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="C191" s="4" t="s">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>10</v>
@@ -5676,13 +6040,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>10</v>
@@ -5696,13 +6060,13 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>10</v>
@@ -5716,34 +6080,37 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B195" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="D195" s="4" t="s">
         <v>9</v>
       </c>
@@ -5751,21 +6118,18 @@
         <v>9</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G195" s="7" t="s">
-        <v>372</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>9</v>
@@ -5775,100 +6139,100 @@
       </c>
       <c r="F196" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B197" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="30">
+      <c r="A198" t="s">
+        <v>356</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C198" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D197" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="7" t="s">
+      <c r="D198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>356</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" t="s">
-        <v>360</v>
-      </c>
-      <c r="B198" s="4" t="s">
+      <c r="C199" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="30">
-      <c r="A199" t="s">
-        <v>360</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="D199" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>380</v>
+        <v>134</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>381</v>
+        <v>271</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>138</v>
+        <v>378</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>10</v>
@@ -5882,16 +6246,16 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>10</v>
@@ -5902,16 +6266,13 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>10</v>
@@ -5922,48 +6283,48 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="30">
+      <c r="A205" t="s">
+        <v>356</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>356</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" t="s">
-        <v>360</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="30">
-      <c r="A206" t="s">
-        <v>360</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="D206" s="4" t="s">
         <v>9</v>
       </c>
@@ -5971,15 +6332,18 @@
         <v>9</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
+      </c>
+      <c r="C207" t="s">
+        <v>386</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>9</v>
@@ -5993,33 +6357,33 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C208" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C209" t="s">
-        <v>392</v>
+        <v>211</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>10</v>
@@ -6033,13 +6397,13 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C210" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>10</v>
@@ -6053,13 +6417,13 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C211" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>10</v>
@@ -6073,13 +6437,13 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C212" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>10</v>
@@ -6093,13 +6457,13 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C213" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>10</v>
@@ -6113,19 +6477,19 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>419</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>10</v>
@@ -6133,10 +6497,13 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="C215" t="s">
+        <v>419</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>9</v>
@@ -6150,10 +6517,13 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="C216" t="s">
+        <v>419</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>9</v>
@@ -6162,27 +6532,22 @@
         <v>9</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" t="s">
-        <v>360</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F217" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G216"/>
+  <conditionalFormatting sqref="D3:F216 G7 G17 G20 G22">
+    <cfRule type="expression" dxfId="17" priority="2">
+      <formula>AND(D3="y", F3="n")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="3">
+      <formula>AND(D3="m", F3="n")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>AND(D3="y", F3="y")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1" location="EL-MusicXML-instruments.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____12"/>
     <hyperlink ref="G26" r:id="rId2" location="EL-MusicXML-octave-change.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____24"/>
@@ -6203,33 +6568,42 @@
     <hyperlink ref="G58" r:id="rId17" location="EL-MusicXML-normal-notes.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Ccommon%7C_____39"/>
     <hyperlink ref="G59" r:id="rId18" location="EL-MusicXML-normal-type.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Ccommon%7C_____40"/>
     <hyperlink ref="G67" r:id="rId19" location="EL-MusicXML-staff.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Ccommon%7C_____66"/>
-    <hyperlink ref="G75" r:id="rId20" location="EL-MusicXML-direction.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cdirection%7C_____21"/>
-    <hyperlink ref="G76" r:id="rId21" location="EL-MusicXML-direction.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cdirection%7C_____21"/>
-    <hyperlink ref="G77" r:id="rId22" location="EL-MusicXML-metronome.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cdirection%7C_____40"/>
-    <hyperlink ref="G80" r:id="rId23" location="EL-MusicXML-encoder.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cidentity%7C_____2"/>
-    <hyperlink ref="G83" r:id="rId24" location="EL-MusicXML-rights.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cidentity%7C_____11"/>
-    <hyperlink ref="G85" r:id="rId25" location="EL-MusicXML-accent.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____1"/>
-    <hyperlink ref="G87" r:id="rId26" location="EL-MusicXML-accidental-mark.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____3"/>
-    <hyperlink ref="G89" r:id="rId27" location="EL-MusicXML-appearance.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____8"/>
-    <hyperlink ref="G92" r:id="rId28" location="EL-MusicXML-articulations.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____13"/>
-    <hyperlink ref="G97" r:id="rId29" location="EL-MusicXML-beam.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____18"/>
-    <hyperlink ref="G114" r:id="rId30" location="EL-MusicXML-extend.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____42"/>
-    <hyperlink ref="G117" r:id="rId31" location="EL-MusicXML-figured-bass.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____46"/>
-    <hyperlink ref="G118" r:id="rId32" location="EL-MusicXML-figure-number.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____47"/>
-    <hyperlink ref="G122" r:id="rId33" location="EL-MusicXML-grace.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____51"/>
-    <hyperlink ref="G135" r:id="rId34" location="EL-MusicXML-lyric.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____66"/>
-    <hyperlink ref="G138" r:id="rId35" location="EL-MusicXML-notations.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____70"/>
-    <hyperlink ref="G139" r:id="rId36" location="EL-MusicXML-note.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____71"/>
-    <hyperlink ref="G150" r:id="rId37" location="EL-MusicXML-prefix.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____85"/>
-    <hyperlink ref="G152" r:id="rId38" location="EL-MusicXML-rest.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____88"/>
-    <hyperlink ref="G167" r:id="rId39" location="EL-MusicXML-syllabic.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____105"/>
-    <hyperlink ref="G169" r:id="rId40" location="EL-MusicXML-technical.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____107"/>
-    <hyperlink ref="G171" r:id="rId41" location="EL-MusicXML-text.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____109"/>
-    <hyperlink ref="G173" r:id="rId42" location="EL-MusicXML-tie.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____111"/>
-    <hyperlink ref="G181" r:id="rId43" location="EL-MusicXML-unpitched.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____127"/>
-    <hyperlink ref="G184" r:id="rId44" location="EL-MusicXML-voice.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____131"/>
-    <hyperlink ref="G195" r:id="rId45" location="EL-MusicXML-measure.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cscore%7C_____20"/>
-    <hyperlink ref="G197" r:id="rId46" location="EL-MusicXML-movement-title.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cscore%7C_____23"/>
+    <hyperlink ref="G74" r:id="rId20" location="EL-MusicXML-direction.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cdirection%7C_____21"/>
+    <hyperlink ref="G75" r:id="rId21" location="EL-MusicXML-direction.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cdirection%7C_____21"/>
+    <hyperlink ref="G76" r:id="rId22" location="EL-MusicXML-metronome.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cdirection%7C_____40"/>
+    <hyperlink ref="G79" r:id="rId23" location="EL-MusicXML-encoder.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cidentity%7C_____2"/>
+    <hyperlink ref="G82" r:id="rId24" location="EL-MusicXML-rights.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cidentity%7C_____11"/>
+    <hyperlink ref="G84" r:id="rId25" location="EL-MusicXML-accent.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____1"/>
+    <hyperlink ref="G86" r:id="rId26" location="EL-MusicXML-accidental-mark.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____3"/>
+    <hyperlink ref="G88" r:id="rId27" location="EL-MusicXML-appearance.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____8"/>
+    <hyperlink ref="G91" r:id="rId28" location="EL-MusicXML-articulations.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____13"/>
+    <hyperlink ref="G96" r:id="rId29" location="EL-MusicXML-beam.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____18"/>
+    <hyperlink ref="G113" r:id="rId30" location="EL-MusicXML-extend.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____42"/>
+    <hyperlink ref="G116" r:id="rId31" location="EL-MusicXML-figured-bass.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____46"/>
+    <hyperlink ref="G117" r:id="rId32" location="EL-MusicXML-figure-number.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____47"/>
+    <hyperlink ref="G121" r:id="rId33" location="EL-MusicXML-grace.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____51"/>
+    <hyperlink ref="G134" r:id="rId34" location="EL-MusicXML-lyric.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____66"/>
+    <hyperlink ref="G137" r:id="rId35" location="EL-MusicXML-notations.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____70"/>
+    <hyperlink ref="G138" r:id="rId36" location="EL-MusicXML-note.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____71"/>
+    <hyperlink ref="G149" r:id="rId37" location="EL-MusicXML-prefix.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____85"/>
+    <hyperlink ref="G151" r:id="rId38" location="EL-MusicXML-rest.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____88"/>
+    <hyperlink ref="G166" r:id="rId39" location="EL-MusicXML-syllabic.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____105"/>
+    <hyperlink ref="G168" r:id="rId40" location="EL-MusicXML-technical.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____107"/>
+    <hyperlink ref="G170" r:id="rId41" location="EL-MusicXML-text.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____109"/>
+    <hyperlink ref="G172" r:id="rId42" location="EL-MusicXML-tie.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____111"/>
+    <hyperlink ref="G180" r:id="rId43" location="EL-MusicXML-unpitched.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____127"/>
+    <hyperlink ref="G183" r:id="rId44" location="EL-MusicXML-voice.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____131"/>
+    <hyperlink ref="G194" r:id="rId45" location="EL-MusicXML-measure.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cscore%7C_____20"/>
+    <hyperlink ref="G196" r:id="rId46" location="EL-MusicXML-movement-title.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cscore%7C_____23"/>
+    <hyperlink ref="G7" r:id="rId47" location="EL-MusicXML-clef.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____5"/>
+    <hyperlink ref="G17" r:id="rId48" location="EL-MusicXML-key-accidental.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____15"/>
+    <hyperlink ref="G22" r:id="rId49" location="EL-MusicXML-measure-repeat.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____20"/>
+    <hyperlink ref="G25" r:id="rId50" location="EL-MusicXML-multiple-rest.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____23"/>
+    <hyperlink ref="G32" r:id="rId51" location="EL-MusicXML-slash-type.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____30"/>
+    <hyperlink ref="G11" r:id="rId52" location="EL-MusicXML-divisions.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____9"/>
+    <hyperlink ref="G20" r:id="rId53" location="EL-MusicXML-key-step.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____18"/>
+    <hyperlink ref="G56" r:id="rId54"/>
+    <hyperlink ref="G143" r:id="rId55" location="EL-MusicXML-ornaments.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cnote%7C_____76"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/imusant old/Documentation/MusicXMLv3_Elements_Reqs.xlsx
+++ b/imusant old/Documentation/MusicXMLv3_Elements_Reqs.xlsx
@@ -1410,7 +1410,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1418,216 +1418,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2049,11 +1839,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2089,7 +1880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" t="s">
         <v>350</v>
       </c>
@@ -2109,7 +1900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" t="s">
         <v>350</v>
       </c>
@@ -2129,7 +1920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" t="s">
         <v>350</v>
       </c>
@@ -2149,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -2192,7 +1983,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" t="s">
         <v>350</v>
       </c>
@@ -2212,7 +2003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" t="s">
         <v>350</v>
       </c>
@@ -2232,7 +2023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45">
+    <row r="10" spans="1:7" ht="45" hidden="1">
       <c r="A10" t="s">
         <v>350</v>
       </c>
@@ -2252,7 +2043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" t="s">
         <v>350</v>
       </c>
@@ -2275,7 +2066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" t="s">
         <v>350</v>
       </c>
@@ -2295,7 +2086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" t="s">
         <v>350</v>
       </c>
@@ -2315,7 +2106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" t="s">
         <v>350</v>
       </c>
@@ -2338,7 +2129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30">
+    <row r="15" spans="1:7" ht="30" hidden="1">
       <c r="A15" t="s">
         <v>350</v>
       </c>
@@ -2358,7 +2149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" t="s">
         <v>350</v>
       </c>
@@ -2378,7 +2169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="30" hidden="1">
       <c r="A17" t="s">
         <v>350</v>
       </c>
@@ -2401,7 +2192,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:7" ht="30" hidden="1">
       <c r="A18" t="s">
         <v>350</v>
       </c>
@@ -2421,7 +2212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="30" hidden="1">
       <c r="A19" t="s">
         <v>350</v>
       </c>
@@ -2441,7 +2232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30">
+    <row r="20" spans="1:7" ht="30" hidden="1">
       <c r="A20" t="s">
         <v>350</v>
       </c>
@@ -2484,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" t="s">
         <v>350</v>
       </c>
@@ -2507,7 +2298,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" t="s">
         <v>350</v>
       </c>
@@ -2570,7 +2361,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="30" hidden="1">
       <c r="A26" t="s">
         <v>350</v>
       </c>
@@ -2593,7 +2384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" t="s">
         <v>350</v>
       </c>
@@ -2616,7 +2407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" t="s">
         <v>350</v>
       </c>
@@ -2662,7 +2453,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" t="s">
         <v>350</v>
       </c>
@@ -2685,7 +2476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7" ht="30" hidden="1">
       <c r="A31" t="s">
         <v>350</v>
       </c>
@@ -2708,7 +2499,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" t="s">
         <v>350</v>
       </c>
@@ -2731,7 +2522,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" t="s">
         <v>350</v>
       </c>
@@ -2754,7 +2545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" t="s">
         <v>350</v>
       </c>
@@ -2777,7 +2568,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" t="s">
         <v>350</v>
       </c>
@@ -2797,7 +2588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" t="s">
         <v>350</v>
       </c>
@@ -2817,7 +2608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" t="s">
         <v>350</v>
       </c>
@@ -2837,7 +2628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7" ht="30" hidden="1">
       <c r="A38" t="s">
         <v>350</v>
       </c>
@@ -2857,7 +2648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="30" hidden="1">
       <c r="A39" t="s">
         <v>350</v>
       </c>
@@ -2877,7 +2668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30">
+    <row r="40" spans="1:7" ht="30" hidden="1">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -2920,7 +2711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="30" hidden="1">
       <c r="A42" t="s">
         <v>351</v>
       </c>
@@ -2943,7 +2734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" t="s">
         <v>352</v>
       </c>
@@ -2963,7 +2754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" t="s">
         <v>352</v>
       </c>
@@ -3003,7 +2794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" t="s">
         <v>351</v>
       </c>
@@ -3023,7 +2814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" t="s">
         <v>351</v>
       </c>
@@ -3066,7 +2857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60">
+    <row r="49" spans="1:7" ht="60" hidden="1">
       <c r="A49" t="s">
         <v>352</v>
       </c>
@@ -3086,7 +2877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" t="s">
         <v>352</v>
       </c>
@@ -3109,7 +2900,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" t="s">
         <v>352</v>
       </c>
@@ -3132,7 +2923,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" t="s">
         <v>352</v>
       </c>
@@ -3155,7 +2946,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" t="s">
         <v>352</v>
       </c>
@@ -3175,7 +2966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" t="s">
         <v>352</v>
       </c>
@@ -3195,7 +2986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" t="s">
         <v>352</v>
       </c>
@@ -3307,7 +3098,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" t="s">
         <v>352</v>
       </c>
@@ -3327,7 +3118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" t="s">
         <v>352</v>
       </c>
@@ -3347,7 +3138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" t="s">
         <v>352</v>
       </c>
@@ -3367,7 +3158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -3387,7 +3178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" t="s">
         <v>352</v>
       </c>
@@ -3407,7 +3198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" t="s">
         <v>352</v>
       </c>
@@ -3427,7 +3218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" t="s">
         <v>352</v>
       </c>
@@ -3447,7 +3238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45">
+    <row r="67" spans="1:7" ht="45" hidden="1">
       <c r="A67" t="s">
         <v>352</v>
       </c>
@@ -3470,7 +3261,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" t="s">
         <v>352</v>
       </c>
@@ -3490,7 +3281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" t="s">
         <v>352</v>
       </c>
@@ -3510,7 +3301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" t="s">
         <v>352</v>
       </c>
@@ -3530,7 +3321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" t="s">
         <v>352</v>
       </c>
@@ -3550,7 +3341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" t="s">
         <v>352</v>
       </c>
@@ -3570,7 +3361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" t="s">
         <v>352</v>
       </c>
@@ -3590,7 +3381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="60">
+    <row r="74" spans="1:7" ht="60" hidden="1">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -3613,7 +3404,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30">
+    <row r="75" spans="1:7" ht="30" hidden="1">
       <c r="A75" t="s">
         <v>354</v>
       </c>
@@ -3636,7 +3427,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="30">
+    <row r="76" spans="1:7" ht="30" hidden="1">
       <c r="A76" t="s">
         <v>353</v>
       </c>
@@ -3659,7 +3450,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="45">
+    <row r="77" spans="1:7" ht="45" hidden="1">
       <c r="A77" t="s">
         <v>353</v>
       </c>
@@ -3679,7 +3470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30">
+    <row r="78" spans="1:7" ht="30" hidden="1">
       <c r="A78" t="s">
         <v>355</v>
       </c>
@@ -3699,7 +3490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" t="s">
         <v>355</v>
       </c>
@@ -3722,7 +3513,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30">
+    <row r="80" spans="1:7" ht="30" hidden="1">
       <c r="A80" t="s">
         <v>355</v>
       </c>
@@ -3742,7 +3533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" t="s">
         <v>355</v>
       </c>
@@ -3762,7 +3553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" t="s">
         <v>355</v>
       </c>
@@ -3782,7 +3573,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" t="s">
         <v>355</v>
       </c>
@@ -3802,7 +3593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3825,7 +3616,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3845,7 +3636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3868,7 +3659,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7" ht="30" hidden="1">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3888,7 +3679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3911,7 +3702,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -3931,7 +3722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -3951,7 +3742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -3974,7 +3765,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="30" hidden="1">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -3994,7 +3785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30">
+    <row r="93" spans="1:7" ht="30" hidden="1">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -4014,7 +3805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -4034,7 +3825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -4054,7 +3845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="60">
+    <row r="96" spans="1:7" ht="60" hidden="1">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -4077,7 +3868,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -4097,7 +3888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -4117,7 +3908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -4137,7 +3928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -4177,7 +3968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -4197,7 +3988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30">
+    <row r="103" spans="1:6" ht="30" hidden="1">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -4217,7 +4008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30">
+    <row r="104" spans="1:6" ht="30" hidden="1">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -4237,7 +4028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -4257,7 +4048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30">
+    <row r="106" spans="1:6" ht="30" hidden="1">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -4277,7 +4068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -4297,7 +4088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -4317,7 +4108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="45">
+    <row r="109" spans="1:6" ht="45" hidden="1">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -4337,7 +4128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -4357,7 +4148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -4377,7 +4168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -4397,7 +4188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -4420,7 +4211,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -4440,7 +4231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -4460,7 +4251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" hidden="1">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -4483,7 +4274,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -4506,7 +4297,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -4527,7 +4318,7 @@
       </c>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -4548,7 +4339,7 @@
       </c>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" hidden="1">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -4584,13 +4375,13 @@
         <v>9</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" hidden="1">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -4611,7 +4402,7 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -4632,7 +4423,7 @@
       </c>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -4653,7 +4444,7 @@
       </c>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -4674,7 +4465,7 @@
       </c>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -4695,7 +4486,7 @@
       </c>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4716,7 +4507,7 @@
       </c>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" spans="1:7" ht="30">
+    <row r="128" spans="1:7" ht="30" hidden="1">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -4737,7 +4528,7 @@
       </c>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -4758,7 +4549,7 @@
       </c>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -4779,7 +4570,7 @@
       </c>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -4800,7 +4591,7 @@
       </c>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" hidden="1">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4821,7 +4612,7 @@
       </c>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -4863,7 +4654,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -4884,7 +4675,7 @@
       </c>
       <c r="G135" s="7"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" hidden="1">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -4928,7 +4719,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" hidden="1">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -4949,7 +4740,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="30">
+    <row r="139" spans="1:7" ht="30" hidden="1">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4970,7 +4761,7 @@
       </c>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="1:7" ht="60">
+    <row r="140" spans="1:7" ht="60" hidden="1">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -4991,7 +4782,7 @@
       </c>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -5010,7 +4801,7 @@
       </c>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -5031,7 +4822,7 @@
       </c>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" spans="1:7" ht="285">
+    <row r="143" spans="1:7" ht="285" hidden="1">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -5054,7 +4845,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -5074,7 +4865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="30">
+    <row r="145" spans="1:7" ht="30" hidden="1">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -5094,7 +4885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" hidden="1">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -5114,7 +4905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" hidden="1">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -5134,7 +4925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" hidden="1">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -5154,7 +4945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" hidden="1">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -5177,7 +4968,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" hidden="1">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -5214,13 +5005,13 @@
         <v>9</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" hidden="1">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -5240,7 +5031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" hidden="1">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -5260,7 +5051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" hidden="1">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -5280,7 +5071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" hidden="1">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -5300,7 +5091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" hidden="1">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -5320,7 +5111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" hidden="1">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -5340,7 +5131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" hidden="1">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -5360,7 +5151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" hidden="1">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -5380,7 +5171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" hidden="1">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -5400,7 +5191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -5420,7 +5211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -5440,7 +5231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -5460,7 +5251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -5480,7 +5271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -5523,7 +5314,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -5543,7 +5334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="165">
+    <row r="168" spans="1:7" ht="165" hidden="1">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -5566,7 +5357,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" hidden="1">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -5609,7 +5400,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" hidden="1">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -5629,7 +5420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -5652,7 +5443,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" hidden="1">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -5672,7 +5463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -5692,7 +5483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" hidden="1">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -5712,7 +5503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" hidden="1">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -5732,7 +5523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="30">
+    <row r="177" spans="1:7" ht="30" hidden="1">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -5752,7 +5543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" hidden="1">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -5772,7 +5563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -5815,7 +5606,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" hidden="1">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -5835,7 +5626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" hidden="1">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -5872,13 +5663,13 @@
         <v>9</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G183" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" hidden="1">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -5898,7 +5689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="30">
+    <row r="185" spans="1:7" ht="30" hidden="1">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -5918,7 +5709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" hidden="1">
       <c r="A186" t="s">
         <v>356</v>
       </c>
@@ -5938,7 +5729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" hidden="1">
       <c r="A187" t="s">
         <v>356</v>
       </c>
@@ -5958,7 +5749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1">
       <c r="A188" t="s">
         <v>356</v>
       </c>
@@ -5978,7 +5769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" hidden="1">
       <c r="A189" t="s">
         <v>356</v>
       </c>
@@ -5998,7 +5789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="30">
+    <row r="190" spans="1:7" ht="30" hidden="1">
       <c r="A190" t="s">
         <v>356</v>
       </c>
@@ -6018,7 +5809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1">
       <c r="A191" t="s">
         <v>356</v>
       </c>
@@ -6038,7 +5829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" hidden="1">
       <c r="A192" t="s">
         <v>356</v>
       </c>
@@ -6058,7 +5849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" hidden="1">
       <c r="A193" t="s">
         <v>356</v>
       </c>
@@ -6078,7 +5869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" hidden="1">
       <c r="A194" t="s">
         <v>356</v>
       </c>
@@ -6118,7 +5909,7 @@
         <v>9</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6138,13 +5929,13 @@
         <v>9</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G196" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" hidden="1">
       <c r="A197" t="s">
         <v>356</v>
       </c>
@@ -6164,7 +5955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="30">
+    <row r="198" spans="1:7" ht="30" hidden="1">
       <c r="A198" t="s">
         <v>356</v>
       </c>
@@ -6184,7 +5975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199" t="s">
         <v>356</v>
       </c>
@@ -6204,7 +5995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" hidden="1">
       <c r="A200" t="s">
         <v>356</v>
       </c>
@@ -6224,7 +6015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" hidden="1">
       <c r="A201" t="s">
         <v>356</v>
       </c>
@@ -6244,7 +6035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" hidden="1">
       <c r="A202" t="s">
         <v>356</v>
       </c>
@@ -6264,7 +6055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" hidden="1">
       <c r="A203" t="s">
         <v>356</v>
       </c>
@@ -6281,7 +6072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" hidden="1">
       <c r="A204" t="s">
         <v>356</v>
       </c>
@@ -6318,7 +6109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" hidden="1">
       <c r="A206" t="s">
         <v>356</v>
       </c>
@@ -6335,7 +6126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" hidden="1">
       <c r="A207" t="s">
         <v>356</v>
       </c>
@@ -6355,7 +6146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" hidden="1">
       <c r="A208" t="s">
         <v>356</v>
       </c>
@@ -6375,7 +6166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" hidden="1">
       <c r="A209" t="s">
         <v>356</v>
       </c>
@@ -6395,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" hidden="1">
       <c r="A210" t="s">
         <v>356</v>
       </c>
@@ -6415,7 +6206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" hidden="1">
       <c r="A211" t="s">
         <v>356</v>
       </c>
@@ -6435,7 +6226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" hidden="1">
       <c r="A212" t="s">
         <v>356</v>
       </c>
@@ -6455,7 +6246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" hidden="1">
       <c r="A213" t="s">
         <v>356</v>
       </c>
@@ -6492,7 +6283,7 @@
         <v>9</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6512,10 +6303,10 @@
         <v>9</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" hidden="1">
       <c r="A216" t="s">
         <v>356</v>
       </c>
@@ -6536,15 +6327,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G216"/>
+  <autoFilter ref="A2:G216">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="y"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="n"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="D3:F216 G7 G17 G20 G22">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(D3="y", F3="n")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(D3="m", F3="n")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(D3="y", F3="y")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/imusant old/Documentation/MusicXMLv3_Elements_Reqs.xlsx
+++ b/imusant old/Documentation/MusicXMLv3_Elements_Reqs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="20" windowWidth="36420" windowHeight="21080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1100" yWindow="20" windowWidth="36420" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="422">
   <si>
     <t>Element</t>
   </si>
@@ -1324,6 +1324,12 @@
   </si>
   <si>
     <t xml:space="preserve">Works are optionally identified by number and title. </t>
+  </si>
+  <si>
+    <t>Reviewed: 1 February 2016</t>
+  </si>
+  <si>
+    <t>Reviewed by: Jason Stoessel</t>
   </si>
 </sst>
 </file>
@@ -1768,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:A16"/>
+  <dimension ref="A4:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1822,6 +1828,16 @@
     <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -1842,9 +1858,9 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:G216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1977,7 +1993,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>411</v>
@@ -2272,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" hidden="1">
@@ -2447,7 +2463,7 @@
         <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>61</v>
@@ -2851,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>100</v>
@@ -3023,7 +3039,7 @@
         <v>9</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>119</v>
@@ -3046,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>123</v>
@@ -3069,7 +3085,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>127</v>
@@ -3092,7 +3108,7 @@
         <v>9</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>130</v>
@@ -3965,7 +3981,7 @@
         <v>9</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6" hidden="1">
@@ -4648,7 +4664,7 @@
         <v>9</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>275</v>
@@ -4713,7 +4729,7 @@
         <v>9</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>281</v>
@@ -5308,7 +5324,7 @@
         <v>9</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G166" s="7" t="s">
         <v>314</v>
@@ -5394,7 +5410,7 @@
         <v>9</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G170" s="7" t="s">
         <v>323</v>

--- a/imusant old/Documentation/MusicXMLv3_Elements_Reqs.xlsx
+++ b/imusant old/Documentation/MusicXMLv3_Elements_Reqs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="20" windowWidth="36420" windowHeight="21080" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="20" windowWidth="36420" windowHeight="21080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="423">
   <si>
     <t>Element</t>
   </si>
@@ -163,15 +163,9 @@
     <t>mode</t>
   </si>
   <si>
-    <t>major/minor and other mode distinctions</t>
-  </si>
-  <si>
     <t>http://www.musicxml.com/UserManuals/MusicXML/MusicXML.htm#EL-MusicXML-multiple-rest.htm%3FTocPath%3DMusicXML%2520Reference%7CScore%2520Schema%2520(XSD)%7CElements%7Cattributes%7C_____23</t>
   </si>
   <si>
-    <t>The text of the multiple-rest type indicates the number of measures in the multiple rest.  Child of measure-style.</t>
-  </si>
-  <si>
     <t>multiple-rest</t>
   </si>
   <si>
@@ -287,9 +281,6 @@
   </si>
   <si>
     <t>time-relation</t>
-  </si>
-  <si>
-    <t>If the part is being encoded for a transposing instrument in written vs. concert pitch, the transposition must be encoded in the transpose element using the transpose type.</t>
   </si>
   <si>
     <t>transpose</t>
@@ -1214,9 +1205,6 @@
     <t>score-instrument</t>
   </si>
   <si>
-    <t>The score-instrument type represents a single instrument within a score-part. As with the score-part type, each score-instrument has a required ID attribute, a name, and an optional abbreviation.</t>
-  </si>
-  <si>
     <t>score-part</t>
   </si>
   <si>
@@ -1330,13 +1318,90 @@
   </si>
   <si>
     <t>Reviewed by: Jason Stoessel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">major/minor and other mode distinctions.  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Already implemented.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The text of the multiple-rest type indicates the number of measures in the multiple rest.  Child of measure-style. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not required - for display purposes only. See VersionOne S-01095.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the part is being encoded for a transposing instrument in written vs. concert pitch, the transposition must be encoded in the transpose element using the transpose type.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>See VersionOne S-01096.  This is an issue.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Child of barline.  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not implemented in v1 as originally indicated. Also part of the Notations element that applies to Note together with slides, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The score-instrument type represents a single instrument within a score-part. As with the score-part type, each score-instrument has a required ID attribute, a name, and an optional abbreviation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The visite() method is commented out in the v1 implementation.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1366,6 +1431,13 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1776,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1787,57 +1859,57 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -1855,12 +1927,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:G216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1875,7 +1946,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1887,18 +1958,18 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1916,15 +1987,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -1936,15 +2007,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -1956,9 +2027,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -1978,13 +2049,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -1996,15 +2067,15 @@
         <v>9</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -2019,9 +2090,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -2039,15 +2110,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" hidden="1">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -2059,9 +2130,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -2082,9 +2153,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
@@ -2102,9 +2173,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -2122,9 +2193,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
@@ -2145,9 +2216,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" hidden="1">
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>30</v>
@@ -2165,9 +2236,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>32</v>
@@ -2185,15 +2256,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" hidden="1">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
@@ -2205,12 +2276,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" hidden="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>36</v>
@@ -2228,9 +2299,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" hidden="1">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>38</v>
@@ -2248,15 +2319,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" hidden="1">
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
@@ -2268,12 +2339,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>40</v>
@@ -2291,15 +2362,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>14</v>
@@ -2311,12 +2382,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>43</v>
@@ -2336,13 +2407,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>46</v>
+        <v>418</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>9</v>
@@ -2351,41 +2422,41 @@
         <v>9</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" hidden="1">
-      <c r="A26" t="s">
-        <v>350</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>14</v>
@@ -2397,18 +2468,18 @@
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1">
-      <c r="A27" t="s">
-        <v>350</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>14</v>
@@ -2420,18 +2491,18 @@
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1">
-      <c r="A28" t="s">
-        <v>350</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>14</v>
@@ -2443,41 +2514,41 @@
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1">
-      <c r="A30" t="s">
-        <v>350</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>14</v>
@@ -2489,18 +2560,18 @@
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" hidden="1">
-      <c r="A31" t="s">
-        <v>350</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>14</v>
@@ -2512,18 +2583,18 @@
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1">
-      <c r="A32" t="s">
-        <v>350</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>14</v>
@@ -2535,18 +2606,18 @@
         <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1">
-      <c r="A33" t="s">
-        <v>350</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>14</v>
@@ -2558,18 +2629,18 @@
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1">
-      <c r="A34" t="s">
-        <v>350</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>14</v>
@@ -2581,184 +2652,184 @@
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>347</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1">
-      <c r="A35" t="s">
-        <v>350</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="D35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>347</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1">
-      <c r="A36" t="s">
-        <v>350</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1">
-      <c r="A37" t="s">
-        <v>350</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="D37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" hidden="1">
-      <c r="A38" t="s">
-        <v>350</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="D38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" hidden="1">
-      <c r="A39" t="s">
-        <v>350</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" hidden="1">
-      <c r="A40" t="s">
-        <v>350</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="D40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60">
+      <c r="A41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30">
-      <c r="A41" t="s">
-        <v>350</v>
-      </c>
-      <c r="B41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="7" t="s">
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" hidden="1">
-      <c r="A42" t="s">
-        <v>351</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1">
-      <c r="A43" t="s">
-        <v>352</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>14</v>
@@ -2770,15 +2841,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>14</v>
@@ -2790,35 +2861,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="30">
       <c r="A45" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>102</v>
+        <v>421</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>9</v>
@@ -2830,15 +2901,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
@@ -2852,165 +2923,165 @@
     </row>
     <row r="48" spans="1:7" ht="45">
       <c r="A48" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60">
+      <c r="A49" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>349</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="60" hidden="1">
-      <c r="A49" t="s">
-        <v>352</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1">
-      <c r="A50" t="s">
-        <v>352</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="D51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>349</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>349</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1">
-      <c r="A51" t="s">
-        <v>352</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1">
-      <c r="A52" t="s">
-        <v>352</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1">
-      <c r="A53" t="s">
-        <v>352</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1">
-      <c r="A54" t="s">
-        <v>352</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1">
-      <c r="A55" t="s">
-        <v>352</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>10</v>
@@ -3027,10 +3098,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>9</v>
@@ -3042,18 +3113,18 @@
         <v>9</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>9</v>
@@ -3065,18 +3136,18 @@
         <v>9</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>9</v>
@@ -3088,304 +3159,304 @@
         <v>9</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="C61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1">
-      <c r="A60" t="s">
-        <v>352</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="C62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>349</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1">
-      <c r="A61" t="s">
-        <v>352</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="C63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>349</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1">
-      <c r="A62" t="s">
-        <v>352</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="C64" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>349</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1">
-      <c r="A63" t="s">
-        <v>352</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="C65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1">
-      <c r="A64" t="s">
-        <v>352</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1">
-      <c r="A65" t="s">
-        <v>352</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45">
+      <c r="A67" t="s">
+        <v>349</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1">
-      <c r="A66" t="s">
-        <v>352</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="45" hidden="1">
-      <c r="A67" t="s">
-        <v>352</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>349</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1">
-      <c r="A68" t="s">
-        <v>352</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1">
-      <c r="A69" t="s">
-        <v>352</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="D69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>349</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1">
-      <c r="A70" t="s">
-        <v>352</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="D70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>349</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>349</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1">
-      <c r="A71" t="s">
-        <v>352</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>349</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1">
-      <c r="A72" t="s">
-        <v>352</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1">
-      <c r="A73" t="s">
-        <v>352</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>14</v>
@@ -3397,15 +3468,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="60" hidden="1">
+    <row r="74" spans="1:7" ht="60">
       <c r="A74" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>14</v>
@@ -3417,41 +3488,41 @@
         <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30">
+      <c r="A75" t="s">
+        <v>351</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30">
+      <c r="A76" t="s">
+        <v>350</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" hidden="1">
-      <c r="A75" t="s">
-        <v>354</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" hidden="1">
-      <c r="A76" t="s">
-        <v>353</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>14</v>
@@ -3463,38 +3534,38 @@
         <v>10</v>
       </c>
       <c r="G76" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45">
+      <c r="A77" t="s">
+        <v>350</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="45" hidden="1">
-      <c r="A77" t="s">
-        <v>353</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" s="4" t="s">
+      <c r="D77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30">
+      <c r="A78" t="s">
+        <v>352</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" hidden="1">
-      <c r="A78" t="s">
-        <v>355</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="C78" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>9</v>
@@ -3506,15 +3577,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>14</v>
@@ -3526,18 +3597,18 @@
         <v>10</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="30" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30">
       <c r="A80" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>14</v>
@@ -3549,15 +3620,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>14</v>
@@ -3569,12 +3640,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>14</v>
@@ -3586,18 +3657,18 @@
         <v>10</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>14</v>
@@ -3609,15 +3680,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>14</v>
@@ -3629,38 +3700,38 @@
         <v>10</v>
       </c>
       <c r="G84" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="4" t="s">
+      <c r="D85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="C86" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>14</v>
@@ -3672,204 +3743,204 @@
         <v>10</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" hidden="1">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="C88" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="4" t="s">
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" s="4" t="s">
+      <c r="D89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="7" t="s">
+      <c r="C90" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1">
-      <c r="A89" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="4" t="s">
+      <c r="C91" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1">
-      <c r="A90" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="4" t="s">
+    </row>
+    <row r="92" spans="1:7" ht="30">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="C92" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="30" hidden="1">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="4" t="s">
+      <c r="D93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C94" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="60">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" hidden="1">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1">
-      <c r="A94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1">
-      <c r="A95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="60" hidden="1">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>14</v>
@@ -3881,78 +3952,78 @@
         <v>10</v>
       </c>
       <c r="G96" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1">
-      <c r="A97" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" s="4" t="s">
+      <c r="D98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" hidden="1">
-      <c r="A98" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="C99" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" hidden="1">
-      <c r="A99" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" hidden="1">
-      <c r="A100" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>10</v>
@@ -3969,10 +4040,10 @@
         <v>8</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>9</v>
@@ -3984,278 +4055,278 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>8</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="30" hidden="1">
-      <c r="A103" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="D103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="30" hidden="1">
-      <c r="A104" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" hidden="1">
-      <c r="A105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="4" t="s">
+      <c r="D106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="30" hidden="1">
-      <c r="A106" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="4" t="s">
+      <c r="C107" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C108" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="45">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" hidden="1">
-      <c r="A107" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" hidden="1">
-      <c r="A108" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="4" t="s">
+      <c r="D109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="45" hidden="1">
-      <c r="A109" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="4" t="s">
+      <c r="C110" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C111" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" hidden="1">
-      <c r="A110" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="C112" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="C113" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="4" t="s">
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1">
-      <c r="A113" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="C114" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" hidden="1">
-      <c r="A114" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1">
-      <c r="A115" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>14</v>
@@ -4267,15 +4338,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>8</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>14</v>
@@ -4287,18 +4358,18 @@
         <v>10</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" hidden="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>8</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>14</v>
@@ -4310,60 +4381,60 @@
         <v>10</v>
       </c>
       <c r="G117" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="7"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" hidden="1">
-      <c r="A118" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="D119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="7"/>
-    </row>
-    <row r="119" spans="1:7" hidden="1">
-      <c r="A119" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="7"/>
-    </row>
-    <row r="120" spans="1:7" hidden="1">
-      <c r="A120" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="C120" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>10</v>
@@ -4381,7 +4452,7 @@
         <v>8</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
@@ -4394,249 +4465,249 @@
         <v>9</v>
       </c>
       <c r="G121" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" hidden="1">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="4" t="s">
+      <c r="C124" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="7"/>
-    </row>
-    <row r="123" spans="1:7" hidden="1">
-      <c r="A123" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="4" t="s">
+      <c r="C125" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="7"/>
-    </row>
-    <row r="124" spans="1:7" hidden="1">
-      <c r="A124" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="7"/>
-    </row>
-    <row r="125" spans="1:7" hidden="1">
-      <c r="A125" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="4" t="s">
+      <c r="D126" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="7"/>
-    </row>
-    <row r="126" spans="1:7" hidden="1">
-      <c r="A126" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="4" t="s">
+      <c r="C127" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128" spans="1:7" ht="30">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="7"/>
-    </row>
-    <row r="127" spans="1:7" hidden="1">
-      <c r="A127" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="4" t="s">
+      <c r="D128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="7"/>
-    </row>
-    <row r="128" spans="1:7" ht="30" hidden="1">
-      <c r="A128" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="4" t="s">
+      <c r="C129" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="D129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="7"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="7"/>
-    </row>
-    <row r="129" spans="1:7" hidden="1">
-      <c r="A129" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="4" t="s">
+      <c r="C130" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="7"/>
-    </row>
-    <row r="130" spans="1:7" hidden="1">
-      <c r="A130" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="4" t="s">
+      <c r="D131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="7"/>
-    </row>
-    <row r="131" spans="1:7" hidden="1">
-      <c r="A131" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="4" t="s">
+      <c r="C132" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="7"/>
-    </row>
-    <row r="132" spans="1:7" hidden="1">
-      <c r="A132" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="7"/>
-    </row>
-    <row r="133" spans="1:7" hidden="1">
-      <c r="A133" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="C133" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>10</v>
@@ -4654,7 +4725,7 @@
         <v>8</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
@@ -4664,42 +4735,42 @@
         <v>9</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G134" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" hidden="1">
-      <c r="A135" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="7"/>
-    </row>
-    <row r="136" spans="1:7" hidden="1">
-      <c r="A136" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="C136" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>10</v>
@@ -4717,30 +4788,30 @@
         <v>8</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" hidden="1">
-      <c r="A138" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
@@ -4753,18 +4824,18 @@
         <v>9</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="30" hidden="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="30">
       <c r="A139" t="s">
         <v>8</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>14</v>
@@ -4777,15 +4848,15 @@
       </c>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="1:7" ht="60" hidden="1">
+    <row r="140" spans="1:7" ht="60">
       <c r="A140" t="s">
         <v>8</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>10</v>
@@ -4798,12 +4869,12 @@
       </c>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="1:7" hidden="1">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>8</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
@@ -4817,15 +4888,15 @@
       </c>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="1:7" hidden="1">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>8</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>10</v>
@@ -4838,15 +4909,15 @@
       </c>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" spans="1:7" ht="285" hidden="1">
+    <row r="143" spans="1:7" ht="285">
       <c r="A143" t="s">
         <v>8</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>14</v>
@@ -4858,118 +4929,118 @@
         <v>10</v>
       </c>
       <c r="G143" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="30">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" hidden="1">
-      <c r="A144" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="D145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="30" hidden="1">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="D146" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" hidden="1">
-      <c r="A146" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" s="4" t="s">
+      <c r="C147" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C148" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" hidden="1">
-      <c r="A147" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" hidden="1">
-      <c r="A148" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" hidden="1">
-      <c r="A149" t="s">
-        <v>8</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="C149" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>14</v>
@@ -4981,18 +5052,18 @@
         <v>10</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" hidden="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>8</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>10</v>
@@ -5009,73 +5080,73 @@
         <v>8</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C152" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" s="7" t="s">
+      <c r="C153" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" hidden="1">
-      <c r="A152" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" hidden="1">
-      <c r="A153" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" hidden="1">
-      <c r="A154" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>14</v>
@@ -5087,215 +5158,215 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>8</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" hidden="1">
-      <c r="A156" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" s="4" t="s">
+      <c r="C158" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" hidden="1">
-      <c r="A157" t="s">
-        <v>8</v>
-      </c>
-      <c r="B157" s="4" t="s">
+      <c r="C159" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" hidden="1">
-      <c r="A158" t="s">
-        <v>8</v>
-      </c>
-      <c r="B158" s="4" t="s">
+      <c r="C160" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" hidden="1">
-      <c r="A159" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" hidden="1">
-      <c r="A160" t="s">
-        <v>8</v>
-      </c>
-      <c r="B160" s="4" t="s">
+      <c r="D161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" hidden="1">
-      <c r="A161" t="s">
-        <v>8</v>
-      </c>
-      <c r="B161" s="4" t="s">
+      <c r="C162" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C163" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" hidden="1">
-      <c r="A162" t="s">
-        <v>8</v>
-      </c>
-      <c r="B162" s="4" t="s">
+      <c r="C164" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" hidden="1">
-      <c r="A163" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" hidden="1">
-      <c r="A164" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" hidden="1">
-      <c r="A165" t="s">
-        <v>8</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>10</v>
@@ -5312,76 +5383,76 @@
         <v>8</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C167" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="165">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" hidden="1">
-      <c r="A167" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167" s="4" t="s">
+      <c r="D168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C167" s="4" t="s">
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="165" hidden="1">
-      <c r="A168" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" hidden="1">
-      <c r="A169" t="s">
-        <v>8</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>10</v>
@@ -5398,196 +5469,196 @@
         <v>8</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C171" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G170" s="7" t="s">
+      <c r="C172" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1">
-      <c r="A171" t="s">
-        <v>8</v>
-      </c>
-      <c r="B171" s="4" t="s">
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" hidden="1">
-      <c r="A172" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C172" s="4" t="s">
+      <c r="D173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" hidden="1">
-      <c r="A173" t="s">
-        <v>8</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" hidden="1">
-      <c r="A174" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" hidden="1">
-      <c r="A175" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" s="4" t="s">
+      <c r="C177" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" hidden="1">
-      <c r="A176" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" s="4" t="s">
+      <c r="D177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="30" hidden="1">
-      <c r="A177" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="D178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" hidden="1">
-      <c r="A178" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" hidden="1">
-      <c r="A179" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>336</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>9</v>
@@ -5604,53 +5675,53 @@
         <v>8</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" hidden="1">
-      <c r="A181" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" hidden="1">
-      <c r="A182" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="C182" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>10</v>
@@ -5667,54 +5738,54 @@
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C184" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="30">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" hidden="1">
-      <c r="A184" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="30" hidden="1">
-      <c r="A185" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="D185" s="4" t="s">
         <v>10</v>
       </c>
@@ -5725,198 +5796,198 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
+        <v>353</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>353</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>353</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="C188" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>353</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" hidden="1">
-      <c r="A187" t="s">
-        <v>356</v>
-      </c>
-      <c r="B187" s="4" t="s">
+      <c r="C189" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="30">
+      <c r="A190" t="s">
+        <v>353</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C187" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" hidden="1">
-      <c r="A188" t="s">
-        <v>356</v>
-      </c>
-      <c r="B188" s="4" t="s">
+      <c r="C190" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" hidden="1">
-      <c r="A189" t="s">
-        <v>356</v>
-      </c>
-      <c r="B189" s="4" t="s">
+      <c r="D190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>353</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="30" hidden="1">
-      <c r="A190" t="s">
-        <v>356</v>
-      </c>
-      <c r="B190" s="4" t="s">
+      <c r="C191" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>353</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C192" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>353</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" hidden="1">
-      <c r="A191" t="s">
-        <v>356</v>
-      </c>
-      <c r="B191" s="4" t="s">
+      <c r="C193" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>353</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" hidden="1">
-      <c r="A192" t="s">
-        <v>356</v>
-      </c>
-      <c r="B192" s="4" t="s">
+      <c r="C194" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C192" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" hidden="1">
-      <c r="A193" t="s">
-        <v>356</v>
-      </c>
-      <c r="B193" s="4" t="s">
+      <c r="D194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" hidden="1">
-      <c r="A194" t="s">
-        <v>356</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G194" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>9</v>
@@ -5930,136 +6001,136 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B196" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>353</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="30">
+      <c r="A198" t="s">
+        <v>353</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C196" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" hidden="1">
-      <c r="A197" t="s">
-        <v>356</v>
-      </c>
-      <c r="B197" s="4" t="s">
+      <c r="D198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>353</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C197" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="30" hidden="1">
-      <c r="A198" t="s">
-        <v>356</v>
-      </c>
-      <c r="B198" s="4" t="s">
+      <c r="C199" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>353</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>353</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" hidden="1">
-      <c r="A199" t="s">
-        <v>356</v>
-      </c>
-      <c r="B199" s="4" t="s">
+      <c r="C201" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>353</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C199" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" hidden="1">
-      <c r="A200" t="s">
-        <v>356</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" hidden="1">
-      <c r="A201" t="s">
-        <v>356</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F201" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" hidden="1">
-      <c r="A202" t="s">
-        <v>356</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="C202" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>14</v>
@@ -6071,206 +6142,206 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B203" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>353</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="60">
+      <c r="A205" t="s">
+        <v>353</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>353</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" hidden="1">
-      <c r="A204" t="s">
-        <v>356</v>
-      </c>
-      <c r="B204" s="4" t="s">
+      <c r="D206" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>353</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="30">
-      <c r="A205" t="s">
-        <v>356</v>
-      </c>
-      <c r="B205" s="4" t="s">
+      <c r="C207" t="s">
         <v>382</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="D207" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>353</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D205" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" hidden="1">
-      <c r="A206" t="s">
-        <v>356</v>
-      </c>
-      <c r="B206" s="4" t="s">
+      <c r="C208" t="s">
         <v>384</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" hidden="1">
-      <c r="A207" t="s">
-        <v>356</v>
-      </c>
-      <c r="B207" s="4" t="s">
+      <c r="D208" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>353</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C209" t="s">
+        <v>208</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>353</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F207" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" hidden="1">
-      <c r="A208" t="s">
-        <v>356</v>
-      </c>
-      <c r="B208" s="4" t="s">
+      <c r="C210" t="s">
+        <v>208</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>353</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C211" t="s">
+        <v>208</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>353</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C208" t="s">
-        <v>388</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" hidden="1">
-      <c r="A209" t="s">
-        <v>356</v>
-      </c>
-      <c r="B209" s="4" t="s">
+      <c r="C212" t="s">
+        <v>208</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>353</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C209" t="s">
-        <v>211</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F209" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" hidden="1">
-      <c r="A210" t="s">
-        <v>356</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C210" t="s">
-        <v>211</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" hidden="1">
-      <c r="A211" t="s">
-        <v>356</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C211" t="s">
-        <v>211</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" hidden="1">
-      <c r="A212" t="s">
-        <v>356</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C212" t="s">
-        <v>211</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" hidden="1">
-      <c r="A213" t="s">
-        <v>356</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="C213" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>10</v>
@@ -6284,13 +6355,13 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C214" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>9</v>
@@ -6304,13 +6375,13 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C215" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>9</v>
@@ -6322,15 +6393,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1">
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C216" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>9</v>
@@ -6343,18 +6414,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G216">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="y"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="n"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:G216"/>
   <conditionalFormatting sqref="D3:F216 G7 G17 G20 G22">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(D3="y", F3="n")</formula>
